--- a/data/api_auto/uu_api/register.xlsx
+++ b/data/api_auto/uu_api/register.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29000" windowHeight="13940"/>
+    <workbookView windowWidth="29080" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
   <si>
     <t>case_module</t>
   </si>
@@ -72,6 +72,153 @@
   </si>
   <si>
     <t>wait</t>
+  </si>
+  <si>
+    <t>邮箱注册</t>
+  </si>
+  <si>
+    <t>获取图片验证码</t>
+  </si>
+  <si>
+    <t>正常流程</t>
+  </si>
+  <si>
+    <t>正常参数</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/captcha/gen</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>{"type":"SLIDER"}</t>
+  </si>
+  <si>
+    <t>{"r_id": "$.data.id"}</t>
+  </si>
+  <si>
+    <t>{"$.success": true}</t>
+  </si>
+  <si>
+    <t>验证图片验证码</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/captcha/check</t>
+  </si>
+  <si>
+    <t>{"id":"${r_id}","data":{"bgImageWidth":242,"bgImageHeight":180,"templateImageWidth":100,"templateImageHeight":180,"startTime":"2025-08-28T09:05:12.710Z","stopTime":"2025-08-28T09:05:27.548Z","trackList":[{"x":0,"y":0,"type":"down","t":10985},{"x":199,"y":6,"type":"move","t":14788},{"x":199,"y":6,"type":"up","t":14838}]}}</t>
+  </si>
+  <si>
+    <t>{"my_email":"function:generate_email","my_account":"function:generate_account"}</t>
+  </si>
+  <si>
+    <t>{"$.success": false, "$.errorCode": "verify_fail"}</t>
+  </si>
+  <si>
+    <t>检查邮箱是否存在</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/checkContactExist</t>
+  </si>
+  <si>
+    <t>{"account":"${my_email}"}</t>
+  </si>
+  <si>
+    <t>{"$.success":true,"$.data":false}</t>
+  </si>
+  <si>
+    <t>通过邮箱获取验证码</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/sendCodeBeforeLogin</t>
+  </si>
+  <si>
+    <t>{"verifyToken":"function:captcha_solver","type":"register","account":"${my_email}"}</t>
+  </si>
+  <si>
+    <t>{"$.success":true}</t>
+  </si>
+  <si>
+    <t>验证邮箱或手机号是否可用</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/checkEmailAndMobile</t>
+  </si>
+  <si>
+    <t>{"email":"${my_email}"}</t>
+  </si>
+  <si>
+    <t>获取验证密钥</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/verifyForRegister</t>
+  </si>
+  <si>
+    <t>{"verifyInfo":"${my_email}","code":"function:extract_code"}</t>
+  </si>
+  <si>
+    <t>{"temporaryToken":"$.data.temporaryToken"}</t>
+  </si>
+  <si>
+    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${my_email}' ORDER BY `create_time` DESC LIMIT 1;</t>
+  </si>
+  <si>
+    <t>检查账号是否可用</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/checkIdExist</t>
+  </si>
+  <si>
+    <t>{"account":"${my_account}"}</t>
+  </si>
+  <si>
+    <t>正常注册</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/register</t>
+  </si>
+  <si>
+    <t>{"email":"${my_email}","loginPwd":"Test#123","code":"","account":"${my_account}"}</t>
+  </si>
+  <si>
+    <t>获取个人信息</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/data</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>/api/forex-balance/balance/queryBalances</t>
+  </si>
+  <si>
+    <t>/api/forex-balance/balance/v2/queryIpFiatConfig</t>
+  </si>
+  <si>
+    <t>/api/forex-balance/balance/v2/queryFiatConfigs</t>
+  </si>
+  <si>
+    <t>/api/forex-setting/coin/coinInfoQueryListUsing?tenant=forex</t>
+  </si>
+  <si>
+    <t>/api/forex-balance/balance/v2/queryBalances</t>
+  </si>
+  <si>
+    <t>/api/forex-user/agentUserInfo/getAgentUserInfo</t>
+  </si>
+  <si>
+    <t>/api/forex-support/support/banner/list</t>
+  </si>
+  <si>
+    <t>/api/forex-setting/setting/homepage_announcement/app/latest/v2</t>
   </si>
 </sst>
 </file>
@@ -1060,22 +1207,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="25.4615384615385" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.2307692307692" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.1538461538462" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.0769230769231" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.7019230769231" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.8365384615385" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.3461538461538" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.3365384615385" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.69230769230769" style="2" customWidth="1"/>
     <col min="7" max="7" width="68.9038461538462" style="2" customWidth="1"/>
@@ -1083,9 +1230,9 @@
     <col min="9" max="9" width="19.3846153846154" style="2" customWidth="1"/>
     <col min="10" max="10" width="67.625" style="3" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="46" style="3" customWidth="1"/>
-    <col min="13" max="13" width="35.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="41.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="45.6730769230769" style="3" customWidth="1"/>
+    <col min="13" max="13" width="37.0096153846154" style="3" customWidth="1"/>
+    <col min="14" max="14" width="48.3942307692308" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1134,6 +1281,436 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="17" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="101" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="34" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" ht="84" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="17" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" ht="17" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="17" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="17" spans="1:14">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="17" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="17" spans="1:14">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" ht="17" spans="1:14">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" ht="17" spans="1:14">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" ht="17" spans="1:14">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" ht="34" spans="1:14">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_auto/uu_api/register.xlsx
+++ b/data/api_auto/uu_api/register.xlsx
@@ -182,7 +182,7 @@
     <t>/api/forex-user/user/register</t>
   </si>
   <si>
-    <t>{"email":"${my_email}","loginPwd":"Test#123","code":"","account":"${my_account}"}</t>
+    <t>{"email":"${my_email}","loginPwd":"Test#123","code":"${temporaryToken}","account":"${my_account}"}</t>
   </si>
   <si>
     <t>获取个人信息</t>
@@ -1210,11 +1210,11 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1498,7 +1498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" ht="51" spans="1:14">
+    <row r="9" ht="34" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>

--- a/data/api_auto/uu_api/register.xlsx
+++ b/data/api_auto/uu_api/register.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
   <si>
     <t>case_module</t>
   </si>
@@ -185,6 +185,9 @@
     <t>{"email":"${my_email}","loginPwd":"Test#123","code":"${temporaryToken}","account":"${my_account}"}</t>
   </si>
   <si>
+    <t>{"token":"$.data.token"}</t>
+  </si>
+  <si>
     <t>获取个人信息</t>
   </si>
   <si>
@@ -192,6 +195,9 @@
   </si>
   <si>
     <t>/api/forex-user/user/data</t>
+  </si>
+  <si>
+    <t>{"authorization":"${token}"}</t>
   </si>
   <si>
     <t>Y</t>
@@ -1210,11 +1216,11 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1523,6 +1529,9 @@
       <c r="J9" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="L9" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="N9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1532,7 +1541,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -1541,10 +1550,13 @@
         <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>21</v>
@@ -1558,13 +1570,13 @@
         <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>21</v>
@@ -1578,13 +1590,13 @@
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>21</v>
@@ -1598,13 +1610,13 @@
         <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>21</v>
@@ -1618,13 +1630,13 @@
         <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>21</v>
@@ -1638,13 +1650,13 @@
         <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>21</v>
@@ -1658,13 +1670,13 @@
         <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>21</v>
@@ -1678,13 +1690,13 @@
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>21</v>
@@ -1698,13 +1710,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>21</v>

--- a/data/api_auto/uu_api/register.xlsx
+++ b/data/api_auto/uu_api/register.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="61">
   <si>
     <t>case_module</t>
   </si>
@@ -77,15 +77,15 @@
     <t>邮箱注册</t>
   </si>
   <si>
+    <t>固定格式邮箱xxx@xtec.space</t>
+  </si>
+  <si>
+    <t>正常流程</t>
+  </si>
+  <si>
     <t>获取图片验证码</t>
   </si>
   <si>
-    <t>正常流程</t>
-  </si>
-  <si>
-    <t>正常参数</t>
-  </si>
-  <si>
     <t>post</t>
   </si>
   <si>
@@ -113,118 +113,103 @@
     <t>{"id":"${r_id}","data":{"bgImageWidth":242,"bgImageHeight":180,"templateImageWidth":100,"templateImageHeight":180,"startTime":"2025-08-28T09:05:12.710Z","stopTime":"2025-08-28T09:05:27.548Z","trackList":[{"x":0,"y":0,"type":"down","t":10985},{"x":199,"y":6,"type":"move","t":14788},{"x":199,"y":6,"type":"up","t":14838}]}}</t>
   </si>
   <si>
+    <t>{"my_email":"function:generate_email_d","my_account":"function:generate_account"}</t>
+  </si>
+  <si>
+    <t>{"$.success": false, "$.errorCode": "verify_fail"}</t>
+  </si>
+  <si>
+    <t>检查邮箱是否存在</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/checkContactExist</t>
+  </si>
+  <si>
+    <t>{"account":"${my_email}"}</t>
+  </si>
+  <si>
+    <t>{"$.success":true,"$.data":false}</t>
+  </si>
+  <si>
+    <t>通过邮箱获取验证码</t>
+  </si>
+  <si>
+    <t>/api/forex-user/v2/user/sendCodeBeforeLogin</t>
+  </si>
+  <si>
+    <t>{"verifyToken":"function:captcha_solver","type":"register","account":"${my_email}"}</t>
+  </si>
+  <si>
+    <t>{"$.success":true}</t>
+  </si>
+  <si>
+    <t>验证邮箱或手机号是否可用</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/checkEmailAndMobile</t>
+  </si>
+  <si>
+    <t>{"email":"${my_email}"}</t>
+  </si>
+  <si>
+    <t>获取验证密钥</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/verifyForRegister</t>
+  </si>
+  <si>
+    <t>{"verifyInfo":"${my_email}","code":"function:extract_code"}</t>
+  </si>
+  <si>
+    <t>{"temporaryToken":"$.data.temporaryToken"}</t>
+  </si>
+  <si>
+    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${my_email}' ORDER BY `create_time` DESC LIMIT 1;</t>
+  </si>
+  <si>
+    <t>检查账号是否可用</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/checkIdExist</t>
+  </si>
+  <si>
+    <t>{"account":"${my_account}"}</t>
+  </si>
+  <si>
+    <t>正常注册</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/register</t>
+  </si>
+  <si>
+    <t>{"email":"${my_email}","loginPwd":"Test#123","code":"${temporaryToken}","account":"${my_account}"}</t>
+  </si>
+  <si>
+    <t>{"token0":"$.data.token"}</t>
+  </si>
+  <si>
+    <t>获取个人信息</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/api/forex-user/user/data</t>
+  </si>
+  <si>
+    <t>{"authorization":"${token0}"}</t>
+  </si>
+  <si>
+    <t>随机邮箱格式</t>
+  </si>
+  <si>
     <t>{"my_email":"function:generate_email","my_account":"function:generate_account"}</t>
   </si>
   <si>
-    <t>{"$.success": false, "$.errorCode": "verify_fail"}</t>
-  </si>
-  <si>
-    <t>检查邮箱是否存在</t>
-  </si>
-  <si>
-    <t>/api/forex-user/v2/user/checkContactExist</t>
-  </si>
-  <si>
-    <t>{"account":"${my_email}"}</t>
-  </si>
-  <si>
-    <t>{"$.success":true,"$.data":false}</t>
-  </si>
-  <si>
-    <t>通过邮箱获取验证码</t>
-  </si>
-  <si>
-    <t>/api/forex-user/v2/user/sendCodeBeforeLogin</t>
-  </si>
-  <si>
-    <t>{"verifyToken":"function:captcha_solver","type":"register","account":"${my_email}"}</t>
-  </si>
-  <si>
-    <t>{"$.success":true}</t>
-  </si>
-  <si>
-    <t>验证邮箱或手机号是否可用</t>
-  </si>
-  <si>
-    <t>/api/forex-user/user/checkEmailAndMobile</t>
-  </si>
-  <si>
-    <t>{"email":"${my_email}"}</t>
-  </si>
-  <si>
-    <t>获取验证密钥</t>
-  </si>
-  <si>
-    <t>/api/forex-user/user/verifyForRegister</t>
-  </si>
-  <si>
-    <t>{"verifyInfo":"${my_email}","code":"function:extract_code"}</t>
-  </si>
-  <si>
-    <t>{"temporaryToken":"$.data.temporaryToken"}</t>
-  </si>
-  <si>
-    <t>SELECT content FROM `forex`.`t_notice_message_record` WHERE `receiver` = '${my_email}' ORDER BY `create_time` DESC LIMIT 1;</t>
-  </si>
-  <si>
-    <t>检查账号是否可用</t>
-  </si>
-  <si>
-    <t>/api/forex-user/user/checkIdExist</t>
-  </si>
-  <si>
-    <t>{"account":"${my_account}"}</t>
-  </si>
-  <si>
-    <t>正常注册</t>
-  </si>
-  <si>
-    <t>/api/forex-user/user/register</t>
-  </si>
-  <si>
-    <t>{"email":"${my_email}","loginPwd":"Test#123","code":"${temporaryToken}","account":"${my_account}"}</t>
-  </si>
-  <si>
     <t>{"token":"$.data.token"}</t>
   </si>
   <si>
-    <t>获取个人信息</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>/api/forex-user/user/data</t>
-  </si>
-  <si>
     <t>{"authorization":"${token}"}</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>/api/forex-balance/balance/queryBalances</t>
-  </si>
-  <si>
-    <t>/api/forex-balance/balance/v2/queryIpFiatConfig</t>
-  </si>
-  <si>
-    <t>/api/forex-balance/balance/v2/queryFiatConfigs</t>
-  </si>
-  <si>
-    <t>/api/forex-setting/coin/coinInfoQueryListUsing?tenant=forex</t>
-  </si>
-  <si>
-    <t>/api/forex-balance/balance/v2/queryBalances</t>
-  </si>
-  <si>
-    <t>/api/forex-user/agentUserInfo/getAgentUserInfo</t>
-  </si>
-  <si>
-    <t>/api/forex-support/support/banner/list</t>
-  </si>
-  <si>
-    <t>/api/forex-setting/setting/homepage_announcement/app/latest/v2</t>
   </si>
 </sst>
 </file>
@@ -1213,14 +1198,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1326,13 +1311,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -1358,13 +1343,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
@@ -1387,13 +1372,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -1416,13 +1401,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
@@ -1445,13 +1430,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -1480,13 +1465,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
@@ -1509,13 +1494,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
@@ -1541,13 +1526,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>54</v>
@@ -1569,77 +1554,119 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="J11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" ht="17" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="101" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="J12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="N12" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="17" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="J13" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="N13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" ht="17" spans="1:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="34" spans="1:14">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>37</v>
@@ -1649,37 +1676,61 @@
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="J15" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" ht="17" spans="1:14">
+    <row r="16" ht="84" spans="1:14">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>37</v>
@@ -1689,17 +1740,26 @@
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>37</v>
@@ -1709,21 +1769,65 @@
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="J18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="N18" s="2" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="19" ht="17" spans="1:14">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
